--- a/data/trans_dic/P04D$aparatos-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P04D$aparatos-Dificultad-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.6331020826367778</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.7269884511929926</v>
+        <v>0.7269884511929925</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6335930110947404</v>
+        <v>0.6333730775989759</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6027537058901832</v>
+        <v>0.6023687483128963</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6943052199793591</v>
+        <v>0.6985272832539884</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6625364904829834</v>
+        <v>0.6579933044104249</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6072863067759851</v>
+        <v>0.6073922658477737</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6767966568806074</v>
+        <v>0.6821442129706374</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6571237583875285</v>
+        <v>0.6568686473831389</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6142958748955096</v>
+        <v>0.6139595235954663</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6992391984849132</v>
+        <v>0.6986906044580681</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6921534823171795</v>
+        <v>0.6945212431736331</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6611225883794899</v>
+        <v>0.6615341634874166</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7815389351101494</v>
+        <v>0.7775210024559371</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7166836044987233</v>
+        <v>0.7151779563105232</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6643770408511281</v>
+        <v>0.6618100033230264</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7448104787323599</v>
+        <v>0.7489204134444506</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6991644952944509</v>
+        <v>0.6977796057317204</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6531340997270025</v>
+        <v>0.6527648283022013</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7499161676498999</v>
+        <v>0.7520374489467736</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.5024466494749267</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7285815987858776</v>
+        <v>0.7285815987858775</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.6799803673029623</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6376050067618141</v>
+        <v>0.6399009137767024</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4712657662358572</v>
+        <v>0.4714513369949106</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6942514963729838</v>
+        <v>0.6926190523331598</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6506005333765271</v>
+        <v>0.6486825381855573</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4918269995589598</v>
+        <v>0.495184515125662</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7191474397415195</v>
+        <v>0.7176926613480588</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6539482801115525</v>
+        <v>0.6554202148579532</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4894956468550593</v>
+        <v>0.4902655045775131</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7155117712940765</v>
+        <v>0.7163613795575275</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6965519363472148</v>
+        <v>0.699502403041999</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5365112309862223</v>
+        <v>0.5366699987485384</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7632835163820931</v>
+        <v>0.7590040969580777</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7105666368040996</v>
+        <v>0.7102645335095549</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5549416176505717</v>
+        <v>0.5571735051315715</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7647111054831011</v>
+        <v>0.7630314802419644</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6982792079559947</v>
+        <v>0.6948654811990889</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5360397477358706</v>
+        <v>0.5368383380663174</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7538607734353764</v>
+        <v>0.7545727812354135</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.4205969193412581</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.6176707914057599</v>
+        <v>0.61767079140576</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.6564812558698931</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6256194936555101</v>
+        <v>0.6255946865035967</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4257438407039548</v>
+        <v>0.4285617406814866</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6054008406091357</v>
+        <v>0.6042327997018653</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6261656860878159</v>
+        <v>0.6220997300401424</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3876263814777648</v>
+        <v>0.3869154834997877</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.589123339039505</v>
+        <v>0.5902415729468755</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6334042969837612</v>
+        <v>0.6307335759019007</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.4188000586789956</v>
+        <v>0.4172226546255017</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6068060423856334</v>
+        <v>0.6063854255679166</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6905768777832699</v>
+        <v>0.6913992561935725</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4972712593965942</v>
+        <v>0.4993306187347576</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6713584676123132</v>
+        <v>0.6685046102701456</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6870340735345775</v>
+        <v>0.6867031421271631</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4568915862423272</v>
+        <v>0.4575407805490508</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6419898766389398</v>
+        <v>0.6414587756472712</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.679096219458699</v>
+        <v>0.6791503038064086</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4694113954471575</v>
+        <v>0.4699758283952622</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6472316273919432</v>
+        <v>0.6482906958388737</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3979684727273781</v>
+        <v>0.4046246202311101</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4190865252691425</v>
+        <v>0.4214306925406915</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4678123346581326</v>
+        <v>0.467035774014055</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.431950039318236</v>
+        <v>0.4268891877888883</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.348688526424467</v>
+        <v>0.35012649526634</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4959149782565651</v>
+        <v>0.4959489046273282</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.427280897206689</v>
+        <v>0.430656711279629</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4007256433855971</v>
+        <v>0.3978661087354542</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4922660267697069</v>
+        <v>0.4894813477802001</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4963529807426209</v>
+        <v>0.4998597132839583</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5105197665704878</v>
+        <v>0.5103779048987067</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5398061620893615</v>
+        <v>0.5406089040798384</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5296874221232053</v>
+        <v>0.5267626505648727</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4413564357814831</v>
+        <v>0.44215067454581</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.5572502856680176</v>
+        <v>0.555363250271714</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4986313364031977</v>
+        <v>0.5013191060040727</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4652537972020083</v>
+        <v>0.4621002260970848</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5387990982444835</v>
+        <v>0.5375433098077307</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.5304757124215861</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.6410248167314668</v>
+        <v>0.6410248167314667</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.65050207958115</v>
@@ -1091,7 +1091,7 @@
         <v>0.523354309799775</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.6493578338954388</v>
+        <v>0.6493578338954389</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.6418074438501601</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6153189893848062</v>
+        <v>0.6159857660518129</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.512212488657217</v>
+        <v>0.5129977550134432</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6226280646930467</v>
+        <v>0.6232039763955401</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.6339401623864777</v>
+        <v>0.6336356966133641</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5067592324303233</v>
+        <v>0.5052405355137096</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6350103011586297</v>
+        <v>0.6346208885930202</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6297137405496346</v>
+        <v>0.6290853318574748</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5145043252684416</v>
+        <v>0.5142990609773368</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.633210964314609</v>
+        <v>0.6330177199852822</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6487551913704186</v>
+        <v>0.6491785411148265</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.547601768016724</v>
+        <v>0.5476886030892875</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6582738820277214</v>
+        <v>0.6601176332749851</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6666889394527113</v>
+        <v>0.6664251130383697</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5410839212596968</v>
+        <v>0.5400281070500408</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.662344722222786</v>
+        <v>0.6635203349922005</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6546074630483167</v>
+        <v>0.653231704042104</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5381528912934175</v>
+        <v>0.5392115515053565</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6567821746420145</v>
+        <v>0.6564412388730969</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>658738</v>
+        <v>658509</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>679904</v>
+        <v>679470</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>344869</v>
+        <v>346966</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>739206</v>
+        <v>734137</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>764914</v>
+        <v>765048</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>421213</v>
+        <v>424541</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1416369</v>
+        <v>1415819</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1466667</v>
+        <v>1465864</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>782500</v>
+        <v>781886</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>719622</v>
+        <v>722084</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>745744</v>
+        <v>746209</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>388199</v>
+        <v>386203</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>799619</v>
+        <v>797939</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>836823</v>
+        <v>833590</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>463542</v>
+        <v>466100</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>1506984</v>
+        <v>1503999</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1559396</v>
+        <v>1558514</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>839212</v>
+        <v>841586</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>621787</v>
+        <v>624026</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>428298</v>
+        <v>428467</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>666577</v>
+        <v>665009</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>711927</v>
+        <v>709829</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>495012</v>
+        <v>498391</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>801990</v>
+        <v>800368</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1353317</v>
+        <v>1356363</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>937531</v>
+        <v>939006</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1484925</v>
+        <v>1486688</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>679272</v>
+        <v>682149</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>487595</v>
+        <v>487739</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>732857</v>
+        <v>728748</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>777546</v>
+        <v>777215</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>558535</v>
+        <v>560781</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>852803</v>
+        <v>850930</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1445057</v>
+        <v>1437993</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1026677</v>
+        <v>1028206</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1564512</v>
+        <v>1565990</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>553745</v>
+        <v>553723</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>350710</v>
+        <v>353032</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>632813</v>
+        <v>631592</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>548393</v>
+        <v>544832</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>298883</v>
+        <v>298335</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>615134</v>
+        <v>616301</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1115369</v>
+        <v>1110666</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>667910</v>
+        <v>665394</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1267879</v>
+        <v>1267001</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>611240</v>
+        <v>611968</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>409632</v>
+        <v>411328</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>701758</v>
+        <v>698774</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>601702</v>
+        <v>601412</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>352290</v>
+        <v>352791</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>670334</v>
+        <v>669780</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1195828</v>
+        <v>1195923</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>748626</v>
+        <v>749526</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1352346</v>
+        <v>1354559</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>199803</v>
+        <v>203145</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>212352</v>
+        <v>213539</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>454615</v>
+        <v>453860</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>195559</v>
+        <v>193268</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>170752</v>
+        <v>171456</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>450215</v>
+        <v>450246</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>407965</v>
+        <v>411188</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>399282</v>
+        <v>396433</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>925281</v>
+        <v>920047</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>249197</v>
+        <v>250958</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>258681</v>
+        <v>258609</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>524578</v>
+        <v>525358</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>239809</v>
+        <v>238484</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>216131</v>
+        <v>216520</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>505899</v>
+        <v>504185</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>476090</v>
+        <v>478656</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>463578</v>
+        <v>460436</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1012747</v>
+        <v>1010386</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2093347</v>
+        <v>2095615</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1724764</v>
+        <v>1727408</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2162959</v>
+        <v>2164960</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2243207</v>
+        <v>2242129</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1787234</v>
+        <v>1781878</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2342907</v>
+        <v>2341471</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>4370569</v>
+        <v>4366208</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3547031</v>
+        <v>3545616</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4535992</v>
+        <v>4534607</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2207098</v>
+        <v>2208539</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1843930</v>
+        <v>1844222</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2286789</v>
+        <v>2293195</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>2359089</v>
+        <v>2358155</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1908290</v>
+        <v>1904567</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>2443759</v>
+        <v>2448097</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>4543346</v>
+        <v>4533797</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>3710066</v>
+        <v>3717365</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>4704843</v>
+        <v>4702401</v>
       </c>
     </row>
     <row r="24">
